--- a/stock_list/mother_baby_stock.xlsx
+++ b/stock_list/mother_baby_stock.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Company Name</t>
   </si>
@@ -55,107 +55,65 @@
     <t>mother_one_year_return</t>
   </si>
   <si>
-    <t>Adani Energy Solutions Ltd.</t>
-  </si>
-  <si>
-    <t>Dabur India Ltd.</t>
-  </si>
-  <si>
-    <t>HDFC Life Insurance Company Ltd.</t>
-  </si>
-  <si>
-    <t>Aditya Birla Sun Life AMC Ltd.</t>
-  </si>
-  <si>
-    <t>Alembic Pharmaceuticals Ltd.</t>
-  </si>
-  <si>
-    <t>Amber Enterprises India Ltd.</t>
-  </si>
-  <si>
-    <t>Atul Ltd.</t>
-  </si>
-  <si>
-    <t>BEML Ltd.</t>
-  </si>
-  <si>
-    <t>BLS International Services Ltd.</t>
-  </si>
-  <si>
-    <t>CCL Products (I) Ltd.</t>
-  </si>
-  <si>
-    <t>Century Plyboards (India) Ltd.</t>
-  </si>
-  <si>
-    <t>Elecon Engineering Co. Ltd.</t>
-  </si>
-  <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>Fast Moving Consumer Goods</t>
+    <t>Central Bank of India</t>
+  </si>
+  <si>
+    <t>Equitas Small Finance Bank Ltd.</t>
+  </si>
+  <si>
+    <t>Jyoti CNC Automation Ltd.</t>
+  </si>
+  <si>
+    <t>AIA Engineering Ltd.</t>
+  </si>
+  <si>
+    <t>FSN E-Commerce Ventures Ltd.</t>
+  </si>
+  <si>
+    <t>KPIT Technologies Ltd.</t>
+  </si>
+  <si>
+    <t>MphasiS Ltd.</t>
   </si>
   <si>
     <t>Financial Services</t>
   </si>
   <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>Consumer Durables</t>
-  </si>
-  <si>
-    <t>Chemicals</t>
-  </si>
-  <si>
     <t>Capital Goods</t>
   </si>
   <si>
     <t>Consumer Services</t>
   </si>
   <si>
-    <t>ADANIENSOL</t>
-  </si>
-  <si>
-    <t>DABUR</t>
-  </si>
-  <si>
-    <t>HDFCLIFE</t>
-  </si>
-  <si>
-    <t>ABSLAMC</t>
-  </si>
-  <si>
-    <t>APLLTD</t>
-  </si>
-  <si>
-    <t>AMBER</t>
-  </si>
-  <si>
-    <t>ATUL</t>
-  </si>
-  <si>
-    <t>BEML</t>
-  </si>
-  <si>
-    <t>BLS</t>
-  </si>
-  <si>
-    <t>CCL</t>
-  </si>
-  <si>
-    <t>CENTURYPLY</t>
-  </si>
-  <si>
-    <t>ELECON</t>
+    <t>Information Technology</t>
+  </si>
+  <si>
+    <t>CENTRALBK</t>
+  </si>
+  <si>
+    <t>EQUITASBNK</t>
+  </si>
+  <si>
+    <t>JYOTICNC</t>
+  </si>
+  <si>
+    <t>AIAENG</t>
+  </si>
+  <si>
+    <t>NYKAA</t>
+  </si>
+  <si>
+    <t>KPITTECH</t>
+  </si>
+  <si>
+    <t>MPHASIS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +131,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF008000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -180,7 +145,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -221,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -229,6 +194,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -575,40 +541,40 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3">
-        <v>1020</v>
+        <v>59.19</v>
       </c>
       <c r="E2" s="2">
-        <v>1029</v>
+        <v>58.94</v>
       </c>
       <c r="F2" s="2">
-        <v>1036.1</v>
+        <v>59.75</v>
       </c>
       <c r="G2" s="2">
-        <v>1015.8</v>
+        <v>57.93</v>
       </c>
       <c r="H2" s="2">
-        <v>48.32</v>
+        <v>47.77</v>
       </c>
       <c r="I2" s="2">
-        <v>1032.65</v>
+        <v>58.97</v>
       </c>
       <c r="J2" s="2">
-        <v>1038.35</v>
+        <v>60.42</v>
       </c>
       <c r="K2" s="2">
-        <v>1003.2</v>
+        <v>57.05</v>
       </c>
       <c r="L2" s="2">
-        <v>1010.75</v>
-      </c>
-      <c r="M2" s="3">
-        <v>31.63</v>
+        <v>57.75</v>
+      </c>
+      <c r="M2" s="4">
+        <v>25.94</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -616,40 +582,40 @@
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3">
-        <v>572.7</v>
+        <v>70.3</v>
       </c>
       <c r="E3" s="2">
-        <v>577.05</v>
+        <v>70.84999999999999</v>
       </c>
       <c r="F3" s="2">
-        <v>579.1</v>
+        <v>70.84999999999999</v>
       </c>
       <c r="G3" s="2">
-        <v>572</v>
+        <v>69.65000000000001</v>
       </c>
       <c r="H3" s="2">
-        <v>25.28</v>
+        <v>18.53</v>
       </c>
       <c r="I3" s="2">
-        <v>578.3</v>
+        <v>71.23999999999999</v>
       </c>
       <c r="J3" s="2">
-        <v>579.35</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="K3" s="2">
-        <v>570.5</v>
+        <v>69.5</v>
       </c>
       <c r="L3" s="2">
-        <v>572.9</v>
-      </c>
-      <c r="M3" s="4">
-        <v>7.01</v>
+        <v>70</v>
+      </c>
+      <c r="M3" s="5">
+        <v>-28.69</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -657,40 +623,40 @@
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="3">
-        <v>726.1</v>
+        <v>26</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1114</v>
       </c>
       <c r="E4" s="2">
-        <v>730.95</v>
+        <v>1125.35</v>
       </c>
       <c r="F4" s="2">
-        <v>730.95</v>
+        <v>1127.55</v>
       </c>
       <c r="G4" s="2">
-        <v>715.95</v>
+        <v>1106</v>
       </c>
       <c r="H4" s="2">
-        <v>54.11</v>
+        <v>46.27</v>
       </c>
       <c r="I4" s="2">
-        <v>726.8</v>
+        <v>1139.55</v>
       </c>
       <c r="J4" s="2">
-        <v>732.45</v>
+        <v>1149</v>
       </c>
       <c r="K4" s="2">
-        <v>714.85</v>
+        <v>1101.05</v>
       </c>
       <c r="L4" s="2">
-        <v>723.45</v>
+        <v>1117.35</v>
       </c>
       <c r="M4" s="4">
-        <v>13.52</v>
+        <v>156.56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -698,40 +664,40 @@
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="3">
-        <v>764.1</v>
+      <c r="D5" s="4">
+        <v>4163.85</v>
       </c>
       <c r="E5" s="2">
-        <v>773.65</v>
+        <v>4260</v>
       </c>
       <c r="F5" s="2">
-        <v>794.35</v>
+        <v>4260</v>
       </c>
       <c r="G5" s="2">
-        <v>761.05</v>
+        <v>4150.05</v>
       </c>
       <c r="H5" s="2">
-        <v>57.75</v>
+        <v>43.56</v>
       </c>
       <c r="I5" s="2">
-        <v>779.05</v>
+        <v>4250.7</v>
       </c>
       <c r="J5" s="2">
-        <v>804</v>
+        <v>4275</v>
       </c>
       <c r="K5" s="2">
-        <v>694.95</v>
+        <v>4125.2</v>
       </c>
       <c r="L5" s="2">
-        <v>698.7</v>
+        <v>4239.4</v>
       </c>
       <c r="M5" s="3">
-        <v>74.29000000000001</v>
+        <v>18.93</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -739,40 +705,40 @@
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1184</v>
+      <c r="D6" s="4">
+        <v>184.15</v>
       </c>
       <c r="E6" s="2">
-        <v>1190.05</v>
+        <v>185.32</v>
       </c>
       <c r="F6" s="2">
-        <v>1197.7</v>
+        <v>185.57</v>
       </c>
       <c r="G6" s="2">
-        <v>1157.5</v>
+        <v>182.01</v>
       </c>
       <c r="H6" s="2">
-        <v>51.15</v>
+        <v>27.74</v>
       </c>
       <c r="I6" s="2">
-        <v>1190.45</v>
+        <v>186.23</v>
       </c>
       <c r="J6" s="2">
-        <v>1201.7</v>
+        <v>187.5</v>
       </c>
       <c r="K6" s="2">
-        <v>1151.1</v>
+        <v>180.5</v>
       </c>
       <c r="L6" s="2">
-        <v>1151.1</v>
-      </c>
-      <c r="M6" s="3">
-        <v>48.65</v>
+        <v>186</v>
+      </c>
+      <c r="M6" s="4">
+        <v>25.74</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -780,40 +746,40 @@
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="3">
-        <v>5475</v>
+      <c r="D7" s="4">
+        <v>1782</v>
       </c>
       <c r="E7" s="2">
-        <v>5455.15</v>
+        <v>1775.8</v>
       </c>
       <c r="F7" s="2">
-        <v>5566.15</v>
+        <v>1802.45</v>
       </c>
       <c r="G7" s="2">
-        <v>5370</v>
+        <v>1772.5</v>
       </c>
       <c r="H7" s="2">
-        <v>69.7</v>
+        <v>68.37</v>
       </c>
       <c r="I7" s="2">
-        <v>5491.65</v>
+        <v>1792.2</v>
       </c>
       <c r="J7" s="2">
-        <v>5665.95</v>
+        <v>1822.9</v>
       </c>
       <c r="K7" s="2">
-        <v>5163.9</v>
+        <v>1755</v>
       </c>
       <c r="L7" s="2">
-        <v>5190.95</v>
-      </c>
-      <c r="M7" s="3">
-        <v>85.03</v>
+        <v>1761.45</v>
+      </c>
+      <c r="M7" s="4">
+        <v>48.48</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -821,245 +787,40 @@
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="3">
-        <v>7790</v>
+      <c r="D8" s="4">
+        <v>3095.75</v>
       </c>
       <c r="E8" s="2">
-        <v>7881</v>
+        <v>3063.05</v>
       </c>
       <c r="F8" s="2">
-        <v>7904.9</v>
+        <v>3108.9</v>
       </c>
       <c r="G8" s="2">
-        <v>7718.65</v>
+        <v>3002.45</v>
       </c>
       <c r="H8" s="2">
-        <v>61.13</v>
+        <v>51.88</v>
       </c>
       <c r="I8" s="2">
-        <v>7890.35</v>
+        <v>3080.2</v>
       </c>
       <c r="J8" s="2">
-        <v>7975.1</v>
+        <v>3109</v>
       </c>
       <c r="K8" s="2">
-        <v>7705</v>
+        <v>2947</v>
       </c>
       <c r="L8" s="2">
-        <v>7782.8</v>
+        <v>3006.3</v>
       </c>
       <c r="M8" s="4">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="3">
-        <v>3935</v>
-      </c>
-      <c r="E9" s="2">
-        <v>3885.75</v>
-      </c>
-      <c r="F9" s="2">
-        <v>3940.4</v>
-      </c>
-      <c r="G9" s="2">
-        <v>3830.1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>57.73</v>
-      </c>
-      <c r="I9" s="2">
-        <v>3871.9</v>
-      </c>
-      <c r="J9" s="2">
-        <v>4008.7</v>
-      </c>
-      <c r="K9" s="2">
-        <v>3770.05</v>
-      </c>
-      <c r="L9" s="2">
-        <v>3770.05</v>
-      </c>
-      <c r="M9" s="3">
-        <v>65.56999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="3">
-        <v>379.15</v>
-      </c>
-      <c r="E10" s="2">
-        <v>382</v>
-      </c>
-      <c r="F10" s="2">
-        <v>385.65</v>
-      </c>
-      <c r="G10" s="2">
-        <v>377.35</v>
-      </c>
-      <c r="H10" s="2">
-        <v>47.05</v>
-      </c>
-      <c r="I10" s="2">
-        <v>381.25</v>
-      </c>
-      <c r="J10" s="2">
-        <v>388.05</v>
-      </c>
-      <c r="K10" s="2">
-        <v>374.05</v>
-      </c>
-      <c r="L10" s="2">
-        <v>375</v>
-      </c>
-      <c r="M10" s="3">
-        <v>48.41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="3">
-        <v>658.7</v>
-      </c>
-      <c r="E11" s="2">
-        <v>673.65</v>
-      </c>
-      <c r="F11" s="2">
-        <v>673.65</v>
-      </c>
-      <c r="G11" s="2">
-        <v>655.4</v>
-      </c>
-      <c r="H11" s="2">
-        <v>32.96</v>
-      </c>
-      <c r="I11" s="2">
-        <v>672.55</v>
-      </c>
-      <c r="J11" s="2">
-        <v>685.3</v>
-      </c>
-      <c r="K11" s="2">
-        <v>648.6</v>
-      </c>
-      <c r="L11" s="2">
-        <v>656.3</v>
-      </c>
-      <c r="M11" s="4">
-        <v>4.04</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="3">
-        <v>876.05</v>
-      </c>
-      <c r="E12" s="2">
-        <v>901</v>
-      </c>
-      <c r="F12" s="2">
-        <v>901</v>
-      </c>
-      <c r="G12" s="2">
-        <v>875.2</v>
-      </c>
-      <c r="H12" s="2">
-        <v>51.08</v>
-      </c>
-      <c r="I12" s="2">
-        <v>901</v>
-      </c>
-      <c r="J12" s="2">
-        <v>909.95</v>
-      </c>
-      <c r="K12" s="2">
-        <v>872.7</v>
-      </c>
-      <c r="L12" s="2">
-        <v>887</v>
-      </c>
-      <c r="M12" s="3">
-        <v>37.48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="3">
-        <v>719.9</v>
-      </c>
-      <c r="E13" s="2">
-        <v>737.05</v>
-      </c>
-      <c r="F13" s="2">
-        <v>738</v>
-      </c>
-      <c r="G13" s="2">
-        <v>715</v>
-      </c>
-      <c r="H13" s="2">
-        <v>63.19</v>
-      </c>
-      <c r="I13" s="2">
-        <v>731.25</v>
-      </c>
-      <c r="J13" s="2">
-        <v>739</v>
-      </c>
-      <c r="K13" s="2">
-        <v>706.05</v>
-      </c>
-      <c r="L13" s="2">
-        <v>713</v>
-      </c>
-      <c r="M13" s="3">
-        <v>77.79000000000001</v>
+        <v>40.24</v>
       </c>
     </row>
   </sheetData>

--- a/stock_list/mother_baby_stock.xlsx
+++ b/stock_list/mother_baby_stock.xlsx
@@ -138,14 +138,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF008000"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF008000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -573,8 +573,8 @@
       <c r="L2" s="2">
         <v>57.75</v>
       </c>
-      <c r="M2" s="4">
-        <v>25.94</v>
+      <c r="M2" s="3">
+        <v>17.56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -614,8 +614,8 @@
       <c r="L3" s="2">
         <v>70</v>
       </c>
-      <c r="M3" s="5">
-        <v>-28.69</v>
+      <c r="M3" s="4">
+        <v>-33.83</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -628,7 +628,7 @@
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>1114</v>
       </c>
       <c r="E4" s="2">
@@ -655,7 +655,7 @@
       <c r="L4" s="2">
         <v>1117.35</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="5">
         <v>156.56</v>
       </c>
     </row>
@@ -669,7 +669,7 @@
       <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>4163.85</v>
       </c>
       <c r="E5" s="2">
@@ -697,7 +697,7 @@
         <v>4239.4</v>
       </c>
       <c r="M5" s="3">
-        <v>18.93</v>
+        <v>13.42</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -710,7 +710,7 @@
       <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>184.15</v>
       </c>
       <c r="E6" s="2">
@@ -737,8 +737,8 @@
       <c r="L6" s="2">
         <v>186</v>
       </c>
-      <c r="M6" s="4">
-        <v>25.74</v>
+      <c r="M6" s="3">
+        <v>7.13</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -751,7 +751,7 @@
       <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>1782</v>
       </c>
       <c r="E7" s="2">
@@ -778,8 +778,8 @@
       <c r="L7" s="2">
         <v>1761.45</v>
       </c>
-      <c r="M7" s="4">
-        <v>48.48</v>
+      <c r="M7" s="5">
+        <v>20.03</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -792,7 +792,7 @@
       <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>3095.75</v>
       </c>
       <c r="E8" s="2">
@@ -819,8 +819,8 @@
       <c r="L8" s="2">
         <v>3006.3</v>
       </c>
-      <c r="M8" s="4">
-        <v>40.24</v>
+      <c r="M8" s="3">
+        <v>15.56</v>
       </c>
     </row>
   </sheetData>
